--- a/biology/Botanique/Carl_Ludwig_Hablitz/Carl_Ludwig_Hablitz.xlsx
+++ b/biology/Botanique/Carl_Ludwig_Hablitz/Carl_Ludwig_Hablitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Ludwig Hablitz (ou Karl Ivanovitch Gablits) est un botaniste prussien devenu sujet de l'Empire russe, né en 1752 à Königsberg et mort en 1821 à Saint-Pétersbourg.
 Le petit-fils : le musicien Alexandre Serov
@@ -513,7 +525,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Hablitz est né dans une famille allemande juive.
 Son père quitte Königsberg (Prusse-Orientale) en 1758 pour la Russie - il était invité à travailler à l'Université de Moscou. Carl est arrivé en Russie à l'âge de 6 ans, il a enseigné à l'Université de Moscou et est devenu un botaniste scientifique russe, membre de l'Académie des Sciences.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il fait paraître :
 Description physique de la région de Tauride, sa position et ses trois empires naturels (1785), traduit en français en 1788.
@@ -579,7 +595,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bieberstein nomme en son honneur des plantes de différents genres (Atripliceae (en) Rchb., Chenopodeae Spr., Pentandria Digynia (pt) L.)  et Hablitzia, dont la seule espèce, H. tamnoides Bieberst., croît dans le Caucase.
 </t>
